--- a/data/pca/factorExposure/factorExposure_2018-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02466491315587102</v>
+        <v>0.02093169420778485</v>
       </c>
       <c r="C2">
-        <v>0.02163587006865174</v>
+        <v>-0.01904265333528375</v>
       </c>
       <c r="D2">
-        <v>0.02826470180109646</v>
+        <v>-0.02078032094782575</v>
       </c>
       <c r="E2">
-        <v>-0.00500141924923304</v>
+        <v>-0.01593218624110604</v>
       </c>
       <c r="F2">
-        <v>-0.1132608627558562</v>
+        <v>0.003498953083256701</v>
       </c>
       <c r="G2">
-        <v>0.04673885486358213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0513824020787166</v>
+      </c>
+      <c r="H2">
+        <v>-0.04930359649696727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1068298264565221</v>
+        <v>0.08097890325179666</v>
       </c>
       <c r="C3">
-        <v>-0.03950467574482218</v>
+        <v>0.01214898749110522</v>
       </c>
       <c r="D3">
-        <v>0.0822913432302161</v>
+        <v>-0.02507505439380194</v>
       </c>
       <c r="E3">
-        <v>-0.006520913895458297</v>
+        <v>-0.01267249160644252</v>
       </c>
       <c r="F3">
-        <v>-0.3979118835459139</v>
+        <v>-0.0449935661038775</v>
       </c>
       <c r="G3">
-        <v>0.1720053558545584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1789295048067793</v>
+      </c>
+      <c r="H3">
+        <v>-0.1558768517936682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0465545529251453</v>
+        <v>0.04328120135757884</v>
       </c>
       <c r="C4">
-        <v>0.02355469813318327</v>
+        <v>-0.005224546692999267</v>
       </c>
       <c r="D4">
-        <v>-0.01491142633586977</v>
+        <v>-0.04871941610813696</v>
       </c>
       <c r="E4">
-        <v>0.05061967413082669</v>
+        <v>0.02312506761294829</v>
       </c>
       <c r="F4">
-        <v>-0.08390090508549539</v>
+        <v>0.04792932150859559</v>
       </c>
       <c r="G4">
-        <v>0.05712224687602627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04304445669898645</v>
+      </c>
+      <c r="H4">
+        <v>-0.05667495004949221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01549545581367632</v>
+        <v>0.02503551218738633</v>
       </c>
       <c r="C6">
-        <v>0.01116205923534795</v>
+        <v>-0.004339413370904493</v>
       </c>
       <c r="D6">
-        <v>0.01743424978548842</v>
+        <v>-0.05169395719173044</v>
       </c>
       <c r="E6">
-        <v>0.02354642265675711</v>
+        <v>0.00828441649837857</v>
       </c>
       <c r="F6">
-        <v>-0.01368343853028545</v>
+        <v>0.029056011789729</v>
       </c>
       <c r="G6">
-        <v>0.00113375996873119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01395490814002778</v>
+      </c>
+      <c r="H6">
+        <v>-0.06296425347162783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0220494852667827</v>
+        <v>0.02103553696928121</v>
       </c>
       <c r="C7">
-        <v>0.001779172019958995</v>
+        <v>-0.00341483053154332</v>
       </c>
       <c r="D7">
-        <v>0.01599104946313091</v>
+        <v>-0.02589389955937896</v>
       </c>
       <c r="E7">
-        <v>0.02943015301348959</v>
+        <v>0.04167248992759974</v>
       </c>
       <c r="F7">
-        <v>-0.05677479812915775</v>
+        <v>0.001070901072266649</v>
       </c>
       <c r="G7">
-        <v>0.06727646704959674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02344821613536823</v>
+      </c>
+      <c r="H7">
+        <v>-0.0374208023791543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02037055287049336</v>
+        <v>0.005511196041204477</v>
       </c>
       <c r="C8">
-        <v>0.01459043128233567</v>
+        <v>0.001434235963287722</v>
       </c>
       <c r="D8">
-        <v>0.007344126947555369</v>
+        <v>-0.01274782433352901</v>
       </c>
       <c r="E8">
-        <v>0.0447489991072428</v>
+        <v>0.007306552794027549</v>
       </c>
       <c r="F8">
-        <v>-0.1006001655372072</v>
+        <v>0.01587214233794683</v>
       </c>
       <c r="G8">
-        <v>0.05238477874578611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04656534866314965</v>
+      </c>
+      <c r="H8">
+        <v>-0.04297666086903351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03676940949438379</v>
+        <v>0.03501999747396281</v>
       </c>
       <c r="C9">
-        <v>0.020849449160252</v>
+        <v>-0.001156264529490503</v>
       </c>
       <c r="D9">
-        <v>-0.004715705839595197</v>
+        <v>-0.03567415281144729</v>
       </c>
       <c r="E9">
-        <v>0.04490533849836873</v>
+        <v>0.01206443055088562</v>
       </c>
       <c r="F9">
-        <v>-0.08514822983798531</v>
+        <v>0.02349486669152737</v>
       </c>
       <c r="G9">
-        <v>0.05841753471709969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04980337754734732</v>
+      </c>
+      <c r="H9">
+        <v>-0.05317470485926771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02703498407048057</v>
+        <v>0.1036257969395262</v>
       </c>
       <c r="C10">
-        <v>-0.04422003779429275</v>
+        <v>0.02991882114445184</v>
       </c>
       <c r="D10">
-        <v>-0.07933461549171342</v>
+        <v>0.1518904815776196</v>
       </c>
       <c r="E10">
-        <v>-0.1048320118894888</v>
+        <v>-0.009628037426491614</v>
       </c>
       <c r="F10">
-        <v>-0.0479561383318748</v>
+        <v>-0.04243479675133491</v>
       </c>
       <c r="G10">
-        <v>-0.02567758446585274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02357304976579224</v>
+      </c>
+      <c r="H10">
+        <v>-0.005636525553033917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03644680783355358</v>
+        <v>0.02032928057280623</v>
       </c>
       <c r="C11">
-        <v>0.01542647370684251</v>
+        <v>0.007837044747809309</v>
       </c>
       <c r="D11">
-        <v>0.01651763643023167</v>
+        <v>-0.03954368071583132</v>
       </c>
       <c r="E11">
-        <v>0.03089588088518538</v>
+        <v>-0.0007962518799137746</v>
       </c>
       <c r="F11">
-        <v>-0.04482449900099657</v>
+        <v>0.008881193176422251</v>
       </c>
       <c r="G11">
-        <v>0.02819478004631666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02637605119618945</v>
+      </c>
+      <c r="H11">
+        <v>-0.04437992444444509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04382393725544142</v>
+        <v>0.02942563751000709</v>
       </c>
       <c r="C12">
-        <v>0.01619506726998715</v>
+        <v>0.006300172991606345</v>
       </c>
       <c r="D12">
-        <v>0.009184175623442299</v>
+        <v>-0.04076699208288547</v>
       </c>
       <c r="E12">
-        <v>0.03867775475306565</v>
+        <v>0.009099947524521479</v>
       </c>
       <c r="F12">
-        <v>-0.03297830784638069</v>
+        <v>0.01583837801934258</v>
       </c>
       <c r="G12">
-        <v>0.01862875430353461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01157443975044411</v>
+      </c>
+      <c r="H12">
+        <v>-0.02438156470566129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01588335280827111</v>
+        <v>0.02488068690794894</v>
       </c>
       <c r="C13">
-        <v>0.02079231099731802</v>
+        <v>-0.0147625992797241</v>
       </c>
       <c r="D13">
-        <v>0.01393865055024675</v>
+        <v>0.001576432928113871</v>
       </c>
       <c r="E13">
-        <v>-0.00238422036448936</v>
+        <v>-0.01258796224622934</v>
       </c>
       <c r="F13">
-        <v>-0.07866110469989482</v>
+        <v>0.00797882500490847</v>
       </c>
       <c r="G13">
-        <v>0.04266032060777869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05647933627618851</v>
+      </c>
+      <c r="H13">
+        <v>-0.05630827667307815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01490423357678044</v>
+        <v>0.01667356426912518</v>
       </c>
       <c r="C14">
-        <v>0.01083914191536974</v>
+        <v>-0.0007676528630332993</v>
       </c>
       <c r="D14">
-        <v>-0.004664587635175767</v>
+        <v>-0.005496966802796793</v>
       </c>
       <c r="E14">
-        <v>0.03973289727367562</v>
+        <v>0.01352361561141814</v>
       </c>
       <c r="F14">
-        <v>-0.0528286068449161</v>
+        <v>0.01257216765452072</v>
       </c>
       <c r="G14">
-        <v>0.06747609477498794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04332922222350307</v>
+      </c>
+      <c r="H14">
+        <v>-0.002579627279330834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02760456399511417</v>
+        <v>0.02177990178564605</v>
       </c>
       <c r="C16">
-        <v>0.01914457402569484</v>
+        <v>0.008456731395716923</v>
       </c>
       <c r="D16">
-        <v>0.01682424851144063</v>
+        <v>-0.03534913139889911</v>
       </c>
       <c r="E16">
-        <v>0.02408749077656665</v>
+        <v>0.002909174213436989</v>
       </c>
       <c r="F16">
-        <v>-0.05176635713618614</v>
+        <v>0.01515721270765769</v>
       </c>
       <c r="G16">
-        <v>0.03084362204641765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02392130082108878</v>
+      </c>
+      <c r="H16">
+        <v>-0.03776775297419623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04826038834862303</v>
+        <v>0.03364792949457349</v>
       </c>
       <c r="C19">
-        <v>0.01783112170345056</v>
+        <v>-0.0004880004517054235</v>
       </c>
       <c r="D19">
-        <v>0.01704543684622128</v>
+        <v>-0.0233888596104903</v>
       </c>
       <c r="E19">
-        <v>0.04093598632485195</v>
+        <v>0.005214659496373007</v>
       </c>
       <c r="F19">
-        <v>-0.09800232429708103</v>
+        <v>0.01730188767171876</v>
       </c>
       <c r="G19">
-        <v>0.03322571521223924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05711896331424227</v>
+      </c>
+      <c r="H19">
+        <v>-0.07373866555271825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009567881970495123</v>
+        <v>0.008957461715620507</v>
       </c>
       <c r="C20">
-        <v>0.01274814695479053</v>
+        <v>-0.006828906229780564</v>
       </c>
       <c r="D20">
-        <v>-0.001804390709142262</v>
+        <v>-0.008554366595480327</v>
       </c>
       <c r="E20">
-        <v>0.0327339090412832</v>
+        <v>0.003963978607194175</v>
       </c>
       <c r="F20">
-        <v>-0.07346047321671527</v>
+        <v>0.01039852143840079</v>
       </c>
       <c r="G20">
-        <v>0.07405793760441963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04925909536418137</v>
+      </c>
+      <c r="H20">
+        <v>-0.01368917054167406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005596134851163493</v>
+        <v>0.01405315031152479</v>
       </c>
       <c r="C21">
-        <v>-0.01385366146734926</v>
+        <v>-0.008672270748790692</v>
       </c>
       <c r="D21">
-        <v>0.01422776370045165</v>
+        <v>-0.009355736994888765</v>
       </c>
       <c r="E21">
-        <v>0.02828294365768519</v>
+        <v>0.01584511966118424</v>
       </c>
       <c r="F21">
-        <v>-0.05200796728032362</v>
+        <v>-0.0001650565662635295</v>
       </c>
       <c r="G21">
-        <v>0.02429064249956876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05005722019307773</v>
+      </c>
+      <c r="H21">
+        <v>-0.03298595305460589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03198435072914272</v>
+        <v>0.01940675827163186</v>
       </c>
       <c r="C24">
-        <v>0.02076958489496649</v>
+        <v>0.002743347245575161</v>
       </c>
       <c r="D24">
-        <v>0.008513545547417898</v>
+        <v>-0.03513678000192676</v>
       </c>
       <c r="E24">
-        <v>0.009197289645092078</v>
+        <v>0.0001900411758625501</v>
       </c>
       <c r="F24">
-        <v>-0.04460074845019994</v>
+        <v>0.009655748542613243</v>
       </c>
       <c r="G24">
-        <v>0.02433368799377417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02074498869934063</v>
+      </c>
+      <c r="H24">
+        <v>-0.04125863400942034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03131034113814656</v>
+        <v>0.02911497659353562</v>
       </c>
       <c r="C25">
-        <v>0.01185339959422049</v>
+        <v>0.0006826380059026751</v>
       </c>
       <c r="D25">
-        <v>0.01674017191078357</v>
+        <v>-0.03473931195830476</v>
       </c>
       <c r="E25">
-        <v>0.0361972780381998</v>
+        <v>0.004476729505327993</v>
       </c>
       <c r="F25">
-        <v>-0.04444336197308121</v>
+        <v>0.01526238214719839</v>
       </c>
       <c r="G25">
-        <v>0.009809896951914277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02458988037100339</v>
+      </c>
+      <c r="H25">
+        <v>-0.04444752540456005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02170462852763742</v>
+        <v>0.0205610663849406</v>
       </c>
       <c r="C26">
-        <v>0.005180040246744091</v>
+        <v>-0.01715857157258274</v>
       </c>
       <c r="D26">
-        <v>0.03066846186415197</v>
+        <v>-0.003158317570289196</v>
       </c>
       <c r="E26">
-        <v>0.01801007011405655</v>
+        <v>-0.0009948478915337603</v>
       </c>
       <c r="F26">
-        <v>-0.06426141097701381</v>
+        <v>-0.0003386292836171889</v>
       </c>
       <c r="G26">
-        <v>0.03719037458334033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03234677585267748</v>
+      </c>
+      <c r="H26">
+        <v>-0.02151022591760036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06333813080263577</v>
+        <v>0.02458077505543287</v>
       </c>
       <c r="C27">
-        <v>0.030181849786627</v>
+        <v>0.009419117928588676</v>
       </c>
       <c r="D27">
-        <v>-0.02752226412661775</v>
+        <v>-0.01583803882164575</v>
       </c>
       <c r="E27">
-        <v>0.03633070967517719</v>
+        <v>0.007611168894446966</v>
       </c>
       <c r="F27">
-        <v>-0.05669390044288959</v>
+        <v>0.01689061969522412</v>
       </c>
       <c r="G27">
-        <v>0.04257442109549203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01951885467531765</v>
+      </c>
+      <c r="H27">
+        <v>-0.004906266102657663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04163050439495463</v>
+        <v>0.1541030802011445</v>
       </c>
       <c r="C28">
-        <v>-0.05133339373909855</v>
+        <v>0.03105253378150716</v>
       </c>
       <c r="D28">
-        <v>-0.11200324618894</v>
+        <v>0.2212334089366022</v>
       </c>
       <c r="E28">
-        <v>-0.1484268653068388</v>
+        <v>-0.00708445179001481</v>
       </c>
       <c r="F28">
-        <v>-0.04515372095788519</v>
+        <v>-0.04809402349651302</v>
       </c>
       <c r="G28">
-        <v>-0.009939386545551938</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009908973507749077</v>
+      </c>
+      <c r="H28">
+        <v>0.0135046735572867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0223883694013882</v>
+        <v>0.02170744616849322</v>
       </c>
       <c r="C29">
-        <v>0.01254289388661956</v>
+        <v>0.001404251718073027</v>
       </c>
       <c r="D29">
-        <v>-0.007234018703296236</v>
+        <v>-0.006911067298736715</v>
       </c>
       <c r="E29">
-        <v>0.05412409163067759</v>
+        <v>0.01360695380942423</v>
       </c>
       <c r="F29">
-        <v>-0.0443652375925632</v>
+        <v>0.01559295152292496</v>
       </c>
       <c r="G29">
-        <v>0.05775579510018589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0411837713580147</v>
+      </c>
+      <c r="H29">
+        <v>0.001104296699047651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09110124363037107</v>
+        <v>0.0493834849341532</v>
       </c>
       <c r="C30">
-        <v>0.0606374203744183</v>
+        <v>-0.00571437301897216</v>
       </c>
       <c r="D30">
-        <v>0.01558694566196129</v>
+        <v>-0.07021561063412203</v>
       </c>
       <c r="E30">
-        <v>0.06840964969972231</v>
+        <v>-0.02915969529083521</v>
       </c>
       <c r="F30">
-        <v>-0.08591043753165754</v>
+        <v>0.04872458281238464</v>
       </c>
       <c r="G30">
-        <v>0.0655186986686558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05582651403729531</v>
+      </c>
+      <c r="H30">
+        <v>-0.06284271398820558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06411818376333646</v>
+        <v>0.05503606515194775</v>
       </c>
       <c r="C31">
-        <v>0.02831021445866549</v>
+        <v>0.01466032814939449</v>
       </c>
       <c r="D31">
-        <v>0.02567787886632591</v>
+        <v>-0.0273683010404573</v>
       </c>
       <c r="E31">
-        <v>0.004865301486113268</v>
+        <v>-0.004411253290787923</v>
       </c>
       <c r="F31">
-        <v>-0.04380071422705198</v>
+        <v>0.01310618749555903</v>
       </c>
       <c r="G31">
-        <v>0.06511368836374129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01833764948109545</v>
+      </c>
+      <c r="H31">
+        <v>-0.01173339946907991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02107719788799795</v>
+        <v>0.01078984104644885</v>
       </c>
       <c r="C32">
-        <v>0.01927997841503782</v>
+        <v>0.01336374525632647</v>
       </c>
       <c r="D32">
-        <v>0.009289218164694545</v>
+        <v>-0.003641090340012011</v>
       </c>
       <c r="E32">
-        <v>0.08056321683972079</v>
+        <v>0.03134181513879244</v>
       </c>
       <c r="F32">
-        <v>-0.06394487618520822</v>
+        <v>0.03324277558119434</v>
       </c>
       <c r="G32">
-        <v>0.04782617045796819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03462676826187561</v>
+      </c>
+      <c r="H32">
+        <v>-0.05997906008302812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05082198208054794</v>
+        <v>0.03808869310178587</v>
       </c>
       <c r="C33">
-        <v>0.01252027320718934</v>
+        <v>0.0008117757414683032</v>
       </c>
       <c r="D33">
-        <v>0.04757538715630387</v>
+        <v>-0.03451765461927037</v>
       </c>
       <c r="E33">
-        <v>0.04031435170113801</v>
+        <v>-0.02340774568720914</v>
       </c>
       <c r="F33">
-        <v>-0.08725022273890624</v>
+        <v>0.001666236927790814</v>
       </c>
       <c r="G33">
-        <v>0.06291819691002361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04753892275424229</v>
+      </c>
+      <c r="H33">
+        <v>-0.04177259285766998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03450272953619885</v>
+        <v>0.02635539168348123</v>
       </c>
       <c r="C34">
-        <v>0.02206880718055518</v>
+        <v>0.0169338386875801</v>
       </c>
       <c r="D34">
-        <v>0.01158483551773522</v>
+        <v>-0.0362414169747247</v>
       </c>
       <c r="E34">
-        <v>0.03237299538196122</v>
+        <v>0.009494126995298278</v>
       </c>
       <c r="F34">
-        <v>-0.05947138617516656</v>
+        <v>0.01696941181298479</v>
       </c>
       <c r="G34">
-        <v>0.01618427899531368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02262903048127531</v>
+      </c>
+      <c r="H34">
+        <v>-0.03811995324968336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0163562005212396</v>
+        <v>0.02130442645475246</v>
       </c>
       <c r="C36">
-        <v>0.005744953375616423</v>
+        <v>-0.003792854226240568</v>
       </c>
       <c r="D36">
-        <v>-0.001900358507769287</v>
+        <v>-0.0006585278044040707</v>
       </c>
       <c r="E36">
-        <v>0.02919947654727454</v>
+        <v>0.006678915554557358</v>
       </c>
       <c r="F36">
-        <v>-0.03300000159699741</v>
+        <v>0.003990757613902971</v>
       </c>
       <c r="G36">
-        <v>0.03755338693269576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01939454145791601</v>
+      </c>
+      <c r="H36">
+        <v>-0.008483216203768211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0007623664010635052</v>
+        <v>0.02244742462590024</v>
       </c>
       <c r="C38">
-        <v>-0.0131654687575087</v>
+        <v>0.01596860019228088</v>
       </c>
       <c r="D38">
-        <v>0.01358495930100113</v>
+        <v>-0.008315903633428033</v>
       </c>
       <c r="E38">
-        <v>-0.01639922430536096</v>
+        <v>-0.0008790885043679376</v>
       </c>
       <c r="F38">
-        <v>-0.04659534628134956</v>
+        <v>0.007289641927461513</v>
       </c>
       <c r="G38">
-        <v>0.002958858491666114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02128295894773881</v>
+      </c>
+      <c r="H38">
+        <v>-0.04084160913962696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04215423872865392</v>
+        <v>0.01703271954735824</v>
       </c>
       <c r="C39">
-        <v>0.039030002391021</v>
+        <v>0.0002693084163078191</v>
       </c>
       <c r="D39">
-        <v>0.02541858852201567</v>
+        <v>-0.07621437634716854</v>
       </c>
       <c r="E39">
-        <v>0.03628193015426938</v>
+        <v>-0.001834036865159976</v>
       </c>
       <c r="F39">
-        <v>-0.06612828254976007</v>
+        <v>0.01982086374966407</v>
       </c>
       <c r="G39">
-        <v>0.02966569134864164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04278621933267384</v>
+      </c>
+      <c r="H39">
+        <v>-0.07041918725678703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0375978429618867</v>
+        <v>0.0302840277536086</v>
       </c>
       <c r="C40">
-        <v>0.06309934718811815</v>
+        <v>0.0003224768221308276</v>
       </c>
       <c r="D40">
-        <v>0.03544783595981604</v>
+        <v>-0.02091297097122454</v>
       </c>
       <c r="E40">
-        <v>-0.009991607182812797</v>
+        <v>-0.02420731579703298</v>
       </c>
       <c r="F40">
-        <v>-0.07839206029743076</v>
+        <v>0.02689570422921284</v>
       </c>
       <c r="G40">
-        <v>0.05275566446804614</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0277342486998787</v>
+      </c>
+      <c r="H40">
+        <v>-0.06450420870670379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.000540035556081347</v>
+        <v>0.01185464098718812</v>
       </c>
       <c r="C41">
-        <v>-0.001388977069016001</v>
+        <v>-0.0002310623208270901</v>
       </c>
       <c r="D41">
-        <v>0.007186355923784189</v>
+        <v>0.01237467142898421</v>
       </c>
       <c r="E41">
-        <v>0.009717878641587656</v>
+        <v>-0.00197075473384189</v>
       </c>
       <c r="F41">
-        <v>-0.003498060238592154</v>
+        <v>-0.001453779655112311</v>
       </c>
       <c r="G41">
-        <v>0.04819983578559251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003336038752817644</v>
+      </c>
+      <c r="H41">
+        <v>0.005579041052233817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3691690541965311</v>
+        <v>0.1960602930133197</v>
       </c>
       <c r="C42">
-        <v>-0.6514828579737322</v>
+        <v>-0.07708955448415547</v>
       </c>
       <c r="D42">
-        <v>0.550294838677589</v>
+        <v>-0.3527457054178625</v>
       </c>
       <c r="E42">
-        <v>-0.1537433093507772</v>
+        <v>-0.2315468498727084</v>
       </c>
       <c r="F42">
-        <v>0.2619945484860562</v>
+        <v>-0.8454286353036626</v>
       </c>
       <c r="G42">
-        <v>0.0802579803555102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2026386013009526</v>
+      </c>
+      <c r="H42">
+        <v>0.05194502212005424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006985807036424236</v>
+        <v>0.0120166590576493</v>
       </c>
       <c r="C43">
-        <v>-0.006521414245678114</v>
+        <v>-0.001475236979807581</v>
       </c>
       <c r="D43">
-        <v>0.01699656323536166</v>
+        <v>0.01280571271743724</v>
       </c>
       <c r="E43">
-        <v>0.01114147493327667</v>
+        <v>-0.006188252277608409</v>
       </c>
       <c r="F43">
-        <v>-0.01874932615074533</v>
+        <v>-0.008195696890181297</v>
       </c>
       <c r="G43">
-        <v>0.04565829828006599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00575487423292763</v>
+      </c>
+      <c r="H43">
+        <v>-0.002503078764496862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01708525638780618</v>
+        <v>0.01277896482546116</v>
       </c>
       <c r="C44">
-        <v>-0.006210057582011728</v>
+        <v>0.0007804373156019397</v>
       </c>
       <c r="D44">
-        <v>0.02136244386186932</v>
+        <v>-0.02431990955321025</v>
       </c>
       <c r="E44">
-        <v>0.02173066739583796</v>
+        <v>0.005016470725997643</v>
       </c>
       <c r="F44">
-        <v>-0.112051779391881</v>
+        <v>-0.007354924114261303</v>
       </c>
       <c r="G44">
-        <v>0.07756242430817459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03903360939965124</v>
+      </c>
+      <c r="H44">
+        <v>-0.05808504753605214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02036038008425958</v>
+        <v>0.01815111631569436</v>
       </c>
       <c r="C46">
-        <v>0.01350915593152433</v>
+        <v>-0.003826967239666287</v>
       </c>
       <c r="D46">
-        <v>0.02306715613977205</v>
+        <v>-0.01476920031568215</v>
       </c>
       <c r="E46">
-        <v>0.04869663462966221</v>
+        <v>0.001103790369976937</v>
       </c>
       <c r="F46">
-        <v>-0.05737366676565155</v>
+        <v>0.01465585059290821</v>
       </c>
       <c r="G46">
-        <v>0.06643291248029436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0483452104740909</v>
+      </c>
+      <c r="H46">
+        <v>-0.01139677777026762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09761557572395528</v>
+        <v>0.07482444569759671</v>
       </c>
       <c r="C47">
-        <v>0.03456202646823014</v>
+        <v>0.02972042418007982</v>
       </c>
       <c r="D47">
-        <v>0.007312561678995562</v>
+        <v>-0.04681127551255032</v>
       </c>
       <c r="E47">
-        <v>0.02293168366002465</v>
+        <v>0.0004908189030066053</v>
       </c>
       <c r="F47">
-        <v>-0.02108371998939722</v>
+        <v>0.02418948194248866</v>
       </c>
       <c r="G47">
-        <v>0.08771858933588805</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006832087230676949</v>
+      </c>
+      <c r="H47">
+        <v>0.02047320922306387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01837404519897647</v>
+        <v>0.02239525288816125</v>
       </c>
       <c r="C48">
-        <v>0.007388342011529674</v>
+        <v>0.006670775540442504</v>
       </c>
       <c r="D48">
-        <v>0.01437340457350733</v>
+        <v>-0.008249779164873332</v>
       </c>
       <c r="E48">
-        <v>0.02740821099918234</v>
+        <v>0.001693399023112668</v>
       </c>
       <c r="F48">
-        <v>-0.05084826281349895</v>
+        <v>0.008504785534503095</v>
       </c>
       <c r="G48">
-        <v>0.02453160955374179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0259562460910458</v>
+      </c>
+      <c r="H48">
+        <v>-0.0185422145749339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09169431344983178</v>
+        <v>0.07323449341454037</v>
       </c>
       <c r="C50">
-        <v>0.03110303786348965</v>
+        <v>0.02687534292293044</v>
       </c>
       <c r="D50">
-        <v>0.01981346896067386</v>
+        <v>-0.04477153019839305</v>
       </c>
       <c r="E50">
-        <v>0.03384248594222888</v>
+        <v>0.0188901080096757</v>
       </c>
       <c r="F50">
-        <v>-0.0550002542637059</v>
+        <v>0.01720479002748064</v>
       </c>
       <c r="G50">
-        <v>0.03907168842500812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01542871964417467</v>
+      </c>
+      <c r="H50">
+        <v>0.0004515774055221513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01645479732515824</v>
+        <v>0.0180257295104991</v>
       </c>
       <c r="C51">
-        <v>-0.01128810984825634</v>
+        <v>-0.001616635394026196</v>
       </c>
       <c r="D51">
-        <v>0.01477574527339233</v>
+        <v>0.004230591457848927</v>
       </c>
       <c r="E51">
-        <v>-0.004559569188573457</v>
+        <v>-0.0001475467471183293</v>
       </c>
       <c r="F51">
-        <v>-0.1135891013691567</v>
+        <v>-0.01255884400715961</v>
       </c>
       <c r="G51">
-        <v>0.05485798197657274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04924903152124437</v>
+      </c>
+      <c r="H51">
+        <v>-0.04963075100185452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1057653656412629</v>
+        <v>0.09240294104525709</v>
       </c>
       <c r="C53">
-        <v>0.05215575091101533</v>
+        <v>0.03662895227466754</v>
       </c>
       <c r="D53">
-        <v>0.01245351493131537</v>
+        <v>-0.08191969129901366</v>
       </c>
       <c r="E53">
-        <v>0.04124265526071298</v>
+        <v>0.007697141348678793</v>
       </c>
       <c r="F53">
-        <v>0.0462276306571769</v>
+        <v>0.05092554495901077</v>
       </c>
       <c r="G53">
-        <v>0.02501005255090615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04108948493527892</v>
+      </c>
+      <c r="H53">
+        <v>0.04216281022296866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02169360944935836</v>
+        <v>0.02612657657348167</v>
       </c>
       <c r="C54">
-        <v>0.01426925701799868</v>
+        <v>0.01142866970702044</v>
       </c>
       <c r="D54">
-        <v>-0.00931666776992925</v>
+        <v>0.0111393782148113</v>
       </c>
       <c r="E54">
-        <v>0.03679509545372033</v>
+        <v>0.007284589457125376</v>
       </c>
       <c r="F54">
-        <v>-0.05108366461288649</v>
+        <v>0.00592450176877418</v>
       </c>
       <c r="G54">
-        <v>0.06759557532164756</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04014634092863395</v>
+      </c>
+      <c r="H54">
+        <v>0.002602374310126575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1048959213468422</v>
+        <v>0.07637450218005598</v>
       </c>
       <c r="C55">
-        <v>0.0310700304290929</v>
+        <v>0.0315801200566098</v>
       </c>
       <c r="D55">
-        <v>-0.009069130164523407</v>
+        <v>-0.07872570463779047</v>
       </c>
       <c r="E55">
-        <v>0.06378460481177659</v>
+        <v>0.01485595420922184</v>
       </c>
       <c r="F55">
-        <v>0.0336243011399549</v>
+        <v>0.04099517164582521</v>
       </c>
       <c r="G55">
-        <v>0.07462308732062266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01866236830017141</v>
+      </c>
+      <c r="H55">
+        <v>0.05092084655025632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1449353672168688</v>
+        <v>0.125256326277841</v>
       </c>
       <c r="C56">
-        <v>0.09210679549594829</v>
+        <v>0.05573428173116773</v>
       </c>
       <c r="D56">
-        <v>-0.02458714268982254</v>
+        <v>-0.1045249404186352</v>
       </c>
       <c r="E56">
-        <v>0.05537680637924342</v>
+        <v>0.01190711117859089</v>
       </c>
       <c r="F56">
-        <v>0.1014922710359218</v>
+        <v>0.08257875221530658</v>
       </c>
       <c r="G56">
-        <v>-0.03038460659892845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07464390534722805</v>
+      </c>
+      <c r="H56">
+        <v>0.05036553581131437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04991019310877872</v>
+        <v>0.03918656638347365</v>
       </c>
       <c r="C57">
-        <v>0.001749656416270896</v>
+        <v>-0.01004689111846291</v>
       </c>
       <c r="D57">
-        <v>0.0126726326022466</v>
+        <v>-0.03087538375801832</v>
       </c>
       <c r="E57">
-        <v>-0.01383309079917054</v>
+        <v>-0.004015211062193541</v>
       </c>
       <c r="F57">
-        <v>-0.08515595019593712</v>
+        <v>0.01457525926285392</v>
       </c>
       <c r="G57">
-        <v>0.05921014491757234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05677793809840262</v>
+      </c>
+      <c r="H57">
+        <v>-0.04255058359895206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2083510097683081</v>
+        <v>0.1446015367113632</v>
       </c>
       <c r="C58">
-        <v>0.06767562785169971</v>
+        <v>0.04142246486775273</v>
       </c>
       <c r="D58">
-        <v>0.1298890799374608</v>
+        <v>-0.1574234402535696</v>
       </c>
       <c r="E58">
-        <v>0.1272826972903948</v>
+        <v>-0.1683624357386602</v>
       </c>
       <c r="F58">
-        <v>-0.3421661297469328</v>
+        <v>-0.03948368409695093</v>
       </c>
       <c r="G58">
-        <v>0.1096838905250396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8296474536239167</v>
+      </c>
+      <c r="H58">
+        <v>0.3693785966929455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04533106135988157</v>
+        <v>0.1593499649774504</v>
       </c>
       <c r="C59">
-        <v>-0.005495438795052396</v>
+        <v>0.0386514432272027</v>
       </c>
       <c r="D59">
-        <v>-0.09752519925467021</v>
+        <v>0.2187331030859547</v>
       </c>
       <c r="E59">
-        <v>-0.1389905436554511</v>
+        <v>-0.0251748495953258</v>
       </c>
       <c r="F59">
-        <v>-0.0662345720594304</v>
+        <v>-0.02492185158022217</v>
       </c>
       <c r="G59">
-        <v>-0.02888928992497405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.009627438071898581</v>
+      </c>
+      <c r="H59">
+        <v>-0.01759198105220314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1622939269450596</v>
+        <v>0.1754114313063677</v>
       </c>
       <c r="C60">
-        <v>0.03867008197394245</v>
+        <v>0.03659594119201566</v>
       </c>
       <c r="D60">
-        <v>0.06679721073411844</v>
+        <v>-0.02027899125583391</v>
       </c>
       <c r="E60">
-        <v>-0.04649766636821326</v>
+        <v>-0.0467546830410947</v>
       </c>
       <c r="F60">
-        <v>-0.1706662236926984</v>
+        <v>0.03434782160386911</v>
       </c>
       <c r="G60">
-        <v>-0.306545009296443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04166799671387962</v>
+      </c>
+      <c r="H60">
+        <v>-0.3972172017713853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02338545383904705</v>
+        <v>0.02037170574188853</v>
       </c>
       <c r="C61">
-        <v>0.00706229939148283</v>
+        <v>0.005884358852844532</v>
       </c>
       <c r="D61">
-        <v>0.01341014446726538</v>
+        <v>-0.04229732600615101</v>
       </c>
       <c r="E61">
-        <v>0.02031970431091222</v>
+        <v>0.005202718878027757</v>
       </c>
       <c r="F61">
-        <v>-0.03723640100283872</v>
+        <v>0.01623231954712443</v>
       </c>
       <c r="G61">
-        <v>0.01868215318538701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0257718207378288</v>
+      </c>
+      <c r="H61">
+        <v>-0.05076153398653569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01665877575273485</v>
+        <v>0.01187913966284748</v>
       </c>
       <c r="C63">
-        <v>0.01343941591396476</v>
+        <v>-0.002560485041110272</v>
       </c>
       <c r="D63">
-        <v>0.01485167504524278</v>
+        <v>-0.01587629337162931</v>
       </c>
       <c r="E63">
-        <v>0.04311310985009952</v>
+        <v>0.005506862658128204</v>
       </c>
       <c r="F63">
-        <v>-0.01550471618259826</v>
+        <v>0.0152314026045822</v>
       </c>
       <c r="G63">
-        <v>0.04430929299594085</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01685996986461507</v>
+      </c>
+      <c r="H63">
+        <v>-0.003756003447530015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03465426021934929</v>
+        <v>0.03871301150731442</v>
       </c>
       <c r="C64">
-        <v>0.004783381003760854</v>
+        <v>0.009125693358212596</v>
       </c>
       <c r="D64">
-        <v>-0.01153646239916751</v>
+        <v>-0.04050526039215107</v>
       </c>
       <c r="E64">
-        <v>0.05844987585940701</v>
+        <v>0.01121299142845315</v>
       </c>
       <c r="F64">
-        <v>-0.01851607946619046</v>
+        <v>0.004601884825136758</v>
       </c>
       <c r="G64">
-        <v>0.06814501037452818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.008114573261779697</v>
+      </c>
+      <c r="H64">
+        <v>-0.03716818800440116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01670411250287878</v>
+        <v>0.02777175531917461</v>
       </c>
       <c r="C65">
-        <v>0.01285956233566297</v>
+        <v>-0.005108193733207162</v>
       </c>
       <c r="D65">
-        <v>0.01874754671780309</v>
+        <v>-0.06030635518777678</v>
       </c>
       <c r="E65">
-        <v>0.02385361442366842</v>
+        <v>0.01036959037934307</v>
       </c>
       <c r="F65">
-        <v>-0.00860441281621244</v>
+        <v>0.03259481024440936</v>
       </c>
       <c r="G65">
-        <v>-0.003621415357481907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003096497478301932</v>
+      </c>
+      <c r="H65">
+        <v>-0.06257768710964284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0452791535803992</v>
+        <v>0.02308363981208568</v>
       </c>
       <c r="C66">
-        <v>0.03957936677055864</v>
+        <v>0.004813761279561843</v>
       </c>
       <c r="D66">
-        <v>0.02754673147979117</v>
+        <v>-0.08819395052168454</v>
       </c>
       <c r="E66">
-        <v>0.03423267073068342</v>
+        <v>-0.003066560164077035</v>
       </c>
       <c r="F66">
-        <v>-0.0614735709967781</v>
+        <v>0.03599252036575736</v>
       </c>
       <c r="G66">
-        <v>0.02062924731933301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03605507104578452</v>
+      </c>
+      <c r="H66">
+        <v>-0.07340763012801201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01323216567155246</v>
+        <v>0.04294714679845291</v>
       </c>
       <c r="C67">
-        <v>-0.008613690109386526</v>
+        <v>0.01933133777604456</v>
       </c>
       <c r="D67">
-        <v>0.009766624340628454</v>
+        <v>-0.002819349673755385</v>
       </c>
       <c r="E67">
-        <v>-0.03822142800550021</v>
+        <v>-0.004378790005087044</v>
       </c>
       <c r="F67">
-        <v>-0.03142370990367727</v>
+        <v>0.01304338307355651</v>
       </c>
       <c r="G67">
-        <v>-0.005516314785705217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.004116759848664176</v>
+      </c>
+      <c r="H67">
+        <v>-0.04049473264076452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05952044763775846</v>
+        <v>0.1613166722227455</v>
       </c>
       <c r="C68">
-        <v>-0.02236399466111955</v>
+        <v>0.01884865084298658</v>
       </c>
       <c r="D68">
-        <v>-0.1320822343570291</v>
+        <v>0.2203110797240302</v>
       </c>
       <c r="E68">
-        <v>-0.1415228791658711</v>
+        <v>-0.01959859231117725</v>
       </c>
       <c r="F68">
-        <v>-0.04880695385366791</v>
+        <v>-0.04717604584017343</v>
       </c>
       <c r="G68">
-        <v>-0.06387326936659284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01911392357976621</v>
+      </c>
+      <c r="H68">
+        <v>0.0387108433370281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07219223629400111</v>
+        <v>0.05816924253704865</v>
       </c>
       <c r="C69">
-        <v>0.03733730712007144</v>
+        <v>0.02824365659040988</v>
       </c>
       <c r="D69">
-        <v>0.004247332004863278</v>
+        <v>-0.04111391215151123</v>
       </c>
       <c r="E69">
-        <v>0.001426735457259106</v>
+        <v>-0.001415631433047022</v>
       </c>
       <c r="F69">
-        <v>-0.01869179679586292</v>
+        <v>0.03154530928522298</v>
       </c>
       <c r="G69">
-        <v>0.08713186339388872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01363278484810611</v>
+      </c>
+      <c r="H69">
+        <v>-0.004068690892465624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06839550237370881</v>
+        <v>0.1501871803281603</v>
       </c>
       <c r="C71">
-        <v>-0.04034371302258241</v>
+        <v>0.02570437499054655</v>
       </c>
       <c r="D71">
-        <v>-0.1134475905243841</v>
+        <v>0.1959944234035178</v>
       </c>
       <c r="E71">
-        <v>-0.1973430948631203</v>
+        <v>-0.02557432534079436</v>
       </c>
       <c r="F71">
-        <v>-0.06282896401290435</v>
+        <v>-0.05685773939343841</v>
       </c>
       <c r="G71">
-        <v>-0.01678975786855746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0186289649866154</v>
+      </c>
+      <c r="H71">
+        <v>0.03063304823220442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1156592203131225</v>
+        <v>0.08070872159521358</v>
       </c>
       <c r="C72">
-        <v>0.08934673837589925</v>
+        <v>0.03882152197613681</v>
       </c>
       <c r="D72">
-        <v>-0.003214281311055139</v>
+        <v>-0.07798446979202502</v>
       </c>
       <c r="E72">
-        <v>0.02237878579518486</v>
+        <v>-0.008332739594060553</v>
       </c>
       <c r="F72">
-        <v>-0.1199896545864682</v>
+        <v>0.07856369465712072</v>
       </c>
       <c r="G72">
-        <v>-0.07480894905455084</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0573330337421185</v>
+      </c>
+      <c r="H72">
+        <v>-0.1686670361730245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2435320134842895</v>
+        <v>0.2340593309102842</v>
       </c>
       <c r="C73">
-        <v>0.03084924765112446</v>
+        <v>0.04519065113370076</v>
       </c>
       <c r="D73">
-        <v>0.06969436563417966</v>
+        <v>-0.06663316810507902</v>
       </c>
       <c r="E73">
-        <v>-0.1450985873613845</v>
+        <v>-0.0783219890218608</v>
       </c>
       <c r="F73">
-        <v>-0.2937622490656644</v>
+        <v>0.0292970446504507</v>
       </c>
       <c r="G73">
-        <v>-0.4467895065560024</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.05973490508625457</v>
+      </c>
+      <c r="H73">
+        <v>-0.5104126577449515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1412715797839161</v>
+        <v>0.1161724672278057</v>
       </c>
       <c r="C74">
-        <v>0.04438919598136409</v>
+        <v>0.05140242493595915</v>
       </c>
       <c r="D74">
-        <v>-0.02011862497441322</v>
+        <v>-0.1050617216494861</v>
       </c>
       <c r="E74">
-        <v>0.03581873790878912</v>
+        <v>0.00956026717405211</v>
       </c>
       <c r="F74">
-        <v>0.07117162131975477</v>
+        <v>0.06156345477621868</v>
       </c>
       <c r="G74">
-        <v>-0.02587940143314968</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05725413785267001</v>
+      </c>
+      <c r="H74">
+        <v>0.03088572195809926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2313588611706323</v>
+        <v>0.2252040662882688</v>
       </c>
       <c r="C75">
-        <v>0.1548052999896298</v>
+        <v>0.1013118061439963</v>
       </c>
       <c r="D75">
-        <v>-0.03174206324145555</v>
+        <v>-0.1677943623676072</v>
       </c>
       <c r="E75">
-        <v>0.06325850000354555</v>
+        <v>-0.003240951202979213</v>
       </c>
       <c r="F75">
-        <v>0.1289391282527216</v>
+        <v>0.1485650705911698</v>
       </c>
       <c r="G75">
-        <v>0.00648245980031295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1248260076470116</v>
+      </c>
+      <c r="H75">
+        <v>0.1168994617702927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2835461302853656</v>
+        <v>0.199904317155375</v>
       </c>
       <c r="C76">
-        <v>0.1465805088528951</v>
+        <v>0.09483032123773104</v>
       </c>
       <c r="D76">
-        <v>-0.1059969212158768</v>
+        <v>-0.1603389738725923</v>
       </c>
       <c r="E76">
-        <v>0.08343481694143078</v>
+        <v>0.04788499230101928</v>
       </c>
       <c r="F76">
-        <v>0.163382175849871</v>
+        <v>0.1446412997872955</v>
       </c>
       <c r="G76">
-        <v>0.01064990873464317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1223451434214452</v>
+      </c>
+      <c r="H76">
+        <v>0.1251881650944432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1395124921834284</v>
+        <v>0.06770224742636934</v>
       </c>
       <c r="C77">
-        <v>-0.02814471490761733</v>
+        <v>0.007327179920724139</v>
       </c>
       <c r="D77">
-        <v>0.08380707973782998</v>
+        <v>-0.06345504552950684</v>
       </c>
       <c r="E77">
-        <v>0.06334523852025163</v>
+        <v>-0.01631202467810223</v>
       </c>
       <c r="F77">
-        <v>-0.179189222459515</v>
+        <v>-0.03624571452172425</v>
       </c>
       <c r="G77">
-        <v>0.180481342940406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1019066163386458</v>
+      </c>
+      <c r="H77">
+        <v>-0.002182289534504655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06440125076386506</v>
+        <v>0.03857858329588031</v>
       </c>
       <c r="C78">
-        <v>0.02473562123279552</v>
+        <v>0.009765400367878015</v>
       </c>
       <c r="D78">
-        <v>0.03153102187734134</v>
+        <v>-0.0490407836211968</v>
       </c>
       <c r="E78">
-        <v>0.0918616973939697</v>
+        <v>0.008131268965067677</v>
       </c>
       <c r="F78">
-        <v>-0.06517429524851659</v>
+        <v>0.01950901381963307</v>
       </c>
       <c r="G78">
-        <v>0.0327185184183949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05890168687777806</v>
+      </c>
+      <c r="H78">
+        <v>-0.06972424141846312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1330152861284443</v>
+        <v>0.1378828709313939</v>
       </c>
       <c r="C80">
-        <v>-0.5842645773536612</v>
+        <v>0.03655425053314591</v>
       </c>
       <c r="D80">
-        <v>-0.5653947061373548</v>
+        <v>-0.04634482807965579</v>
       </c>
       <c r="E80">
-        <v>0.5247367283471618</v>
+        <v>0.9381851382933302</v>
       </c>
       <c r="F80">
-        <v>-0.0707726138123537</v>
+        <v>-0.2461203765646472</v>
       </c>
       <c r="G80">
-        <v>-0.1106036969995033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1207684087275988</v>
+      </c>
+      <c r="H80">
+        <v>-0.008058392150812835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1747427600132522</v>
+        <v>0.1475665230783134</v>
       </c>
       <c r="C81">
-        <v>0.1064724416761137</v>
+        <v>0.06541668679433427</v>
       </c>
       <c r="D81">
-        <v>-0.05368086422304701</v>
+        <v>-0.1025573708362888</v>
       </c>
       <c r="E81">
-        <v>0.04363195744120422</v>
+        <v>0.01743089315515823</v>
       </c>
       <c r="F81">
-        <v>0.1322590888058751</v>
+        <v>0.08959982536776767</v>
       </c>
       <c r="G81">
-        <v>-0.02207314540161427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08176673006619102</v>
+      </c>
+      <c r="H81">
+        <v>0.08159020256617733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04902811583530568</v>
+        <v>0.03229603647906452</v>
       </c>
       <c r="C83">
-        <v>-0.002078169366857958</v>
+        <v>0.005522101111854061</v>
       </c>
       <c r="D83">
-        <v>0.03750106003734136</v>
+        <v>-0.02073761183905927</v>
       </c>
       <c r="E83">
-        <v>0.0122729421066288</v>
+        <v>-0.005271957321136938</v>
       </c>
       <c r="F83">
-        <v>-0.05525253161051463</v>
+        <v>0.000792271153065245</v>
       </c>
       <c r="G83">
-        <v>0.04453692717181141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04152806843035374</v>
+      </c>
+      <c r="H83">
+        <v>-0.04127233672051334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.253166047324765</v>
+        <v>0.2146157453951041</v>
       </c>
       <c r="C85">
-        <v>0.1382185209382058</v>
+        <v>0.08488202133376875</v>
       </c>
       <c r="D85">
-        <v>-0.05268614753816524</v>
+        <v>-0.1686485479655749</v>
       </c>
       <c r="E85">
-        <v>0.07079715142278292</v>
+        <v>0.003709055051158172</v>
       </c>
       <c r="F85">
-        <v>0.1281595562991298</v>
+        <v>0.1349212207663775</v>
       </c>
       <c r="G85">
-        <v>0.04958438162478877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1363862464013824</v>
+      </c>
+      <c r="H85">
+        <v>0.08685101007324557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003423478369453685</v>
+        <v>0.02046883235224782</v>
       </c>
       <c r="C86">
-        <v>-0.004809843049241931</v>
+        <v>-0.0009710728959136699</v>
       </c>
       <c r="D86">
-        <v>0.02215770618736559</v>
+        <v>-0.005225920917758889</v>
       </c>
       <c r="E86">
-        <v>0.05166847950032921</v>
+        <v>-0.009196458388610702</v>
       </c>
       <c r="F86">
-        <v>-0.06007878847054174</v>
+        <v>-0.0202707783458313</v>
       </c>
       <c r="G86">
-        <v>0.01843487342297547</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06242827111026915</v>
+      </c>
+      <c r="H86">
+        <v>-0.07514731122097976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03682759230766915</v>
+        <v>0.02647502692988834</v>
       </c>
       <c r="C87">
-        <v>-0.009188499235534654</v>
+        <v>0.001739234273987809</v>
       </c>
       <c r="D87">
-        <v>0.002457915946334492</v>
+        <v>-0.03325196450936269</v>
       </c>
       <c r="E87">
-        <v>0.03829059207133437</v>
+        <v>0.008944270152021679</v>
       </c>
       <c r="F87">
-        <v>-0.1058736218051665</v>
+        <v>0.004842480933685253</v>
       </c>
       <c r="G87">
-        <v>0.0377780481333523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07676207691427933</v>
+      </c>
+      <c r="H87">
+        <v>-0.07475135101714467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01025081400962345</v>
+        <v>0.03506743591612481</v>
       </c>
       <c r="C88">
-        <v>0.002403489386050255</v>
+        <v>-0.01189026767098029</v>
       </c>
       <c r="D88">
-        <v>-0.01747876929514863</v>
+        <v>-0.004488275536140675</v>
       </c>
       <c r="E88">
-        <v>-0.00343259057937332</v>
+        <v>0.008647124483703464</v>
       </c>
       <c r="F88">
-        <v>-0.007123530409115382</v>
+        <v>0.006730764794887122</v>
       </c>
       <c r="G88">
-        <v>0.05253528778164667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.002988335221696859</v>
+      </c>
+      <c r="H88">
+        <v>-0.01562738561843458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08576950113532746</v>
+        <v>0.2552458045076125</v>
       </c>
       <c r="C89">
-        <v>-0.05414837893308348</v>
+        <v>0.04106984241377389</v>
       </c>
       <c r="D89">
-        <v>-0.1610165938847704</v>
+        <v>0.3456618729799144</v>
       </c>
       <c r="E89">
-        <v>-0.2623287381631038</v>
+        <v>-0.04136028421336094</v>
       </c>
       <c r="F89">
-        <v>-0.1184421345851754</v>
+        <v>-0.05732272877466731</v>
       </c>
       <c r="G89">
-        <v>0.01693821877541012</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02438567671378358</v>
+      </c>
+      <c r="H89">
+        <v>0.01193054442679198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07489675604071523</v>
+        <v>0.2053425819497693</v>
       </c>
       <c r="C90">
-        <v>-0.08024383519874519</v>
+        <v>0.0335675498059806</v>
       </c>
       <c r="D90">
-        <v>-0.2105482704309232</v>
+        <v>0.3039535467909947</v>
       </c>
       <c r="E90">
-        <v>-0.2634550640192262</v>
+        <v>-0.03126205237725871</v>
       </c>
       <c r="F90">
-        <v>-0.06903566415639924</v>
+        <v>-0.07320687326307461</v>
       </c>
       <c r="G90">
-        <v>0.01634154950774745</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03254865347076795</v>
+      </c>
+      <c r="H90">
+        <v>0.06889231363479163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3147293987341118</v>
+        <v>0.2319608419194721</v>
       </c>
       <c r="C91">
-        <v>0.1528795887592214</v>
+        <v>0.1022664362102653</v>
       </c>
       <c r="D91">
-        <v>-0.04754289151686906</v>
+        <v>-0.1590082513468217</v>
       </c>
       <c r="E91">
-        <v>0.04714653074808612</v>
+        <v>0.002033833244230024</v>
       </c>
       <c r="F91">
-        <v>0.234501362445513</v>
+        <v>0.1417725937119998</v>
       </c>
       <c r="G91">
-        <v>-0.03419749519376127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1466435304126887</v>
+      </c>
+      <c r="H91">
+        <v>0.1628896577149489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1688406762839792</v>
+        <v>0.2510956410841696</v>
       </c>
       <c r="C92">
-        <v>-0.02929195490999767</v>
+        <v>0.09607173092410611</v>
       </c>
       <c r="D92">
-        <v>-0.3036342976011545</v>
+        <v>0.2330288721352518</v>
       </c>
       <c r="E92">
-        <v>-0.3638123097405278</v>
+        <v>-0.01700329175051827</v>
       </c>
       <c r="F92">
-        <v>0.04566710971049007</v>
+        <v>-0.02765518695274654</v>
       </c>
       <c r="G92">
-        <v>0.5272762809675836</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.006530685280364406</v>
+      </c>
+      <c r="H92">
+        <v>0.1477204795584929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07640686904699619</v>
+        <v>0.2295785691869804</v>
       </c>
       <c r="C93">
-        <v>-0.08832445633732564</v>
+        <v>0.04545378072557976</v>
       </c>
       <c r="D93">
-        <v>-0.2386426854476696</v>
+        <v>0.3285182896446723</v>
       </c>
       <c r="E93">
-        <v>-0.386308728529063</v>
+        <v>-0.05620207190307146</v>
       </c>
       <c r="F93">
-        <v>-0.03646640912513902</v>
+        <v>-0.08431212518999465</v>
       </c>
       <c r="G93">
-        <v>-0.06095328025146209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02955580181677404</v>
+      </c>
+      <c r="H93">
+        <v>0.01965404603396732</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3036435041396131</v>
+        <v>0.2552588755223572</v>
       </c>
       <c r="C94">
-        <v>0.219055251796343</v>
+        <v>0.09308125454665316</v>
       </c>
       <c r="D94">
-        <v>-0.09669147647394852</v>
+        <v>-0.1588102987513615</v>
       </c>
       <c r="E94">
-        <v>0.05210505180865876</v>
+        <v>-0.006473374982406137</v>
       </c>
       <c r="F94">
-        <v>0.200372342104825</v>
+        <v>0.1911748220729581</v>
       </c>
       <c r="G94">
-        <v>-0.07803573775521577</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1352785282465234</v>
+      </c>
+      <c r="H94">
+        <v>0.1816207997554516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06621928095250199</v>
+        <v>0.05159534008086251</v>
       </c>
       <c r="C95">
-        <v>0.02742508815130924</v>
+        <v>0.02788978733679631</v>
       </c>
       <c r="D95">
-        <v>0.09507805160550277</v>
+        <v>-0.08397539801298223</v>
       </c>
       <c r="E95">
-        <v>0.06271990398101714</v>
+        <v>-0.08031594561781143</v>
       </c>
       <c r="F95">
-        <v>-0.001168534068310019</v>
+        <v>0.002611298314921076</v>
       </c>
       <c r="G95">
-        <v>0.1610136880005392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03002264334241809</v>
+      </c>
+      <c r="H95">
+        <v>-0.04555186110001996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1817461043293833</v>
+        <v>0.1790878843425744</v>
       </c>
       <c r="C98">
-        <v>-0.01110319432746971</v>
+        <v>0.06718938429285369</v>
       </c>
       <c r="D98">
-        <v>0.03451485541010894</v>
+        <v>-0.04343092852285572</v>
       </c>
       <c r="E98">
-        <v>-0.09185523639483205</v>
+        <v>-0.04422949958544216</v>
       </c>
       <c r="F98">
-        <v>-0.1602258437393418</v>
+        <v>0.001734510850703844</v>
       </c>
       <c r="G98">
-        <v>-0.3578144034069349</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08098153235124651</v>
+      </c>
+      <c r="H98">
+        <v>-0.3774636514236744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007687217555484533</v>
+        <v>0.01497987367959188</v>
       </c>
       <c r="C101">
-        <v>0.02623141618937392</v>
+        <v>-0.0006636740115491018</v>
       </c>
       <c r="D101">
-        <v>0.02066878133549294</v>
+        <v>-0.008087489744811667</v>
       </c>
       <c r="E101">
-        <v>0.1026785842384977</v>
+        <v>0.005587441786842538</v>
       </c>
       <c r="F101">
-        <v>-0.1504874398449267</v>
+        <v>0.0174987291299897</v>
       </c>
       <c r="G101">
-        <v>0.1699555218480328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1094109070809455</v>
+      </c>
+      <c r="H101">
+        <v>0.03040252657576317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1102236131955912</v>
+        <v>0.1034080133535286</v>
       </c>
       <c r="C102">
-        <v>0.07111517750863476</v>
+        <v>0.03364447597311796</v>
       </c>
       <c r="D102">
-        <v>-0.002743096512755352</v>
+        <v>-0.08443256431898559</v>
       </c>
       <c r="E102">
-        <v>0.05114964894864505</v>
+        <v>0.00503604351165047</v>
       </c>
       <c r="F102">
-        <v>0.1152624704239089</v>
+        <v>0.07013849334577714</v>
       </c>
       <c r="G102">
-        <v>0.007107094882610018</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07548830545736158</v>
+      </c>
+      <c r="H102">
+        <v>0.06883476805241927</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0292641815393203</v>
+        <v>0.01950939639011928</v>
       </c>
       <c r="C103">
-        <v>0.01720184744210586</v>
+        <v>0.007390039431744665</v>
       </c>
       <c r="D103">
-        <v>-0.004643407460218763</v>
+        <v>-0.01752609853178577</v>
       </c>
       <c r="E103">
-        <v>0.01426495862740884</v>
+        <v>0.01131539262086518</v>
       </c>
       <c r="F103">
-        <v>0.008209141623236459</v>
+        <v>0.01400375625068299</v>
       </c>
       <c r="G103">
-        <v>0.03469257103712301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0004389366450433172</v>
+      </c>
+      <c r="H103">
+        <v>0.007833887969245909</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2650812323155856</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9471931337449935</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01322928734213002</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03533846526430353</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.144715285158502</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01241950275856752</v>
+      </c>
+      <c r="H104">
+        <v>0.03817613921108604</v>
       </c>
     </row>
   </sheetData>
